--- a/art/美术量/UI/UI用到的特效贴图.xlsx
+++ b/art/美术量/UI/UI用到的特效贴图.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>UISumReward</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>ruodian_tubiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用层级插件的预设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UISumReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubiao_effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,6 +1004,21 @@
         <v>21</v>
       </c>
     </row>
+    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
